--- a/Listas de precios/mayorista/MIRADOR OPTICO.xlsx
+++ b/Listas de precios/mayorista/MIRADOR OPTICO.xlsx
@@ -787,7 +787,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -918,12 +918,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/MIRADOR OPTICO.xlsx
+++ b/Listas de precios/mayorista/MIRADOR OPTICO.xlsx
@@ -787,7 +787,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -918,12 +918,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/Listas de precios/mayorista/MIRADOR OPTICO.xlsx
+++ b/Listas de precios/mayorista/MIRADOR OPTICO.xlsx
@@ -787,7 +787,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="20" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="7" t="n"/>
     </row>
@@ -918,12 +918,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
